--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1800962.949724739</v>
+        <v>-1802913.1755533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.9865036627658</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>293.3275623078974</v>
       </c>
       <c r="H2" t="n">
-        <v>270.8363975648598</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>173.2913312615465</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.28273443010488</v>
+        <v>14.9138545113332</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>8.817137440041629</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.55575211235063</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>208.0481001000691</v>
       </c>
       <c r="V7" t="n">
-        <v>177.08982778645</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>25.48009046819473</v>
+        <v>132.6868673113703</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>124.1188808018646</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336592</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>87.90024861273328</v>
       </c>
     </row>
     <row r="14">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>249.2583819388121</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>152.5925687411129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>148.9042139439612</v>
+        <v>42.18619101177383</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>36.98273601213553</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>77.7414640267985</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522963</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.832462274153</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.577765259397</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.4244094237647</v>
+        <v>1641.913545139719</v>
       </c>
       <c r="C2" t="n">
-        <v>752.4244094237647</v>
+        <v>1272.951028199307</v>
       </c>
       <c r="D2" t="n">
-        <v>752.4244094237647</v>
+        <v>914.6853295925566</v>
       </c>
       <c r="E2" t="n">
-        <v>752.4244094237647</v>
+        <v>914.6853295925566</v>
       </c>
       <c r="F2" t="n">
-        <v>745.4789086745612</v>
+        <v>503.6994248029491</v>
       </c>
       <c r="G2" t="n">
-        <v>327.5151005727481</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1641.913545139719</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1641.913545139719</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>566.5654221758658</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.4901647174274</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>999.4901647174274</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>641.224466110677</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2679.416008076454</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2503.238520390624</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2503.238520390624</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2249.476735028716</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1918.413847685145</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1565.645192415031</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1192.179434153951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>802.0401021781393</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.1849863041093</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C7" t="n">
-        <v>338.1849863041093</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V7" t="n">
-        <v>519.833451134349</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W7" t="n">
-        <v>519.833451134349</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X7" t="n">
-        <v>519.833451134349</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.833451134349</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C8" t="n">
-        <v>567.286643657864</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="D8" t="n">
-        <v>567.286643657864</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="E8" t="n">
-        <v>567.286643657864</v>
+        <v>752.4220013132363</v>
       </c>
       <c r="F8" t="n">
-        <v>560.3411429086606</v>
+        <v>341.4360965236287</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>156.7517573047574</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>156.7517573047574</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>156.7517573047574</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.1356072130308</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>657.1994242851239</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1262.468560249157</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1262.468560249157</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1262.468560249157</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.78407204327</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1007.78407204327</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X13" t="n">
-        <v>1007.78407204327</v>
+        <v>981.5095496229235</v>
       </c>
       <c r="Y13" t="n">
-        <v>1007.78407204327</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,7 +5540,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4595.498205900218</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1120.996947528102</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>866.3124593222151</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5865,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.8631874464246</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185177</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333287</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>948.3042314201945</v>
+        <v>943.3899024076593</v>
       </c>
       <c r="W22" t="n">
-        <v>948.3042314201945</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="X22" t="n">
-        <v>948.3042314201945</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.5116522766643</v>
+        <v>653.9727323706986</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>1028.139166941221</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>859.2029840133141</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>709.0863446009784</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>561.1732510185852</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>414.2833035206748</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>246.1079818404955</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1420.389539217702</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1420.389539217702</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1131.26090043126</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>876.5764122253731</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>587.1592421884125</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X25" t="n">
-        <v>359.1696912903951</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.1696912903951</v>
+        <v>1209.787631771461</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,10 +6403,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S28" t="n">
         <v>1865.165908942116</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,13 +6485,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,16 +6616,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,19 +6640,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7075,55 +7075,55 @@
         <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,7 +7348,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>169.2863157167183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>104.8749102765748</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.7473380007147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>196.4397694169226</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>73.80192918173869</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>130.6844047393615</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.879261385015894</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>133.6447836574645</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>103.2334293798668</v>
+        <v>209.9514523120542</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>111.9310923554006</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>120.1793459568048</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-7.480682867610063e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262555</v>
+        <v>58099.54682262556</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="F2" t="n">
         <v>58654.35896065628</v>
       </c>
       <c r="G2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.35896065633</v>
       </c>
       <c r="H2" t="n">
-        <v>58654.35896065626</v>
+        <v>58654.35896065633</v>
       </c>
       <c r="I2" t="n">
         <v>58654.35896065627</v>
@@ -26338,19 +26338,19 @@
         <v>61578.13273982127</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="L2" t="n">
-        <v>61578.13273982128</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982126</v>
-      </c>
       <c r="N2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982128</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007521</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007495</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="N4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732795</v>
-      </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736171.6283569767</v>
+        <v>-736287.5812208832</v>
       </c>
       <c r="C6" t="n">
         <v>-169197.9940395091</v>
@@ -26528,34 +26528,34 @@
         <v>-169197.994039509</v>
       </c>
       <c r="E6" t="n">
-        <v>-566409.735120964</v>
+        <v>-566507.1942469361</v>
       </c>
       <c r="F6" t="n">
-        <v>-41249.69864406784</v>
+        <v>-41347.15777004</v>
       </c>
       <c r="G6" t="n">
-        <v>-41249.69864406779</v>
+        <v>-41347.15777003998</v>
       </c>
       <c r="H6" t="n">
-        <v>-41249.69864406786</v>
+        <v>-41347.15777003996</v>
       </c>
       <c r="I6" t="n">
-        <v>-41249.69864406786</v>
+        <v>-41347.15777004002</v>
       </c>
       <c r="J6" t="n">
-        <v>-297401.2232738375</v>
+        <v>-297401.2232738376</v>
       </c>
       <c r="K6" t="n">
-        <v>-66472.49197753207</v>
+        <v>-66472.49197753213</v>
       </c>
       <c r="L6" t="n">
-        <v>-66472.49197753206</v>
+        <v>-66472.4919775321</v>
       </c>
       <c r="M6" t="n">
         <v>-201273.5072113692</v>
       </c>
       <c r="N6" t="n">
-        <v>-66472.49197753204</v>
+        <v>-66472.49197753212</v>
       </c>
       <c r="O6" t="n">
         <v>-120978.0040812446</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>120.4566077128976</v>
       </c>
       <c r="H2" t="n">
-        <v>53.08637519949735</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.5492457518324</v>
+        <v>164.9181256706041</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>373.1132326322202</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>36.92265046246108</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>78.23377414190867</v>
       </c>
       <c r="V7" t="n">
-        <v>75.04781553737797</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>388.3040795526003</v>
+        <v>281.0973027094246</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29053,10 +29053,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>257.2993485017925</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36455,7 +36455,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36686,10 +36686,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>387.238612517683</v>
+        <v>579.6103458172109</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36765,13 +36765,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,13 +37002,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
